--- a/Assignment 8/LinkBudget.xlsx
+++ b/Assignment 8/LinkBudget.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niels\Google Drive\Introduction To Spacecraft Systems\Assignment 8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C51914BF-79AC-432E-802A-997DABD0DF02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3052AB84-AFF6-47D9-B186-89F08CF0D34C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3612" yWindow="4692" windowWidth="7500" windowHeight="6000" xr2:uid="{08D095FD-7A76-4477-BCFB-B16EF9407CD1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{08D095FD-7A76-4477-BCFB-B16EF9407CD1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
   <si>
     <t>Parameter</t>
   </si>
@@ -72,9 +72,6 @@
     <t>EIRP</t>
   </si>
   <si>
-    <t>Distance</t>
-  </si>
-  <si>
     <t>Path Loss</t>
   </si>
   <si>
@@ -103,6 +100,45 @@
   </si>
   <si>
     <t>dBw</t>
+  </si>
+  <si>
+    <t>Db</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>Ratio</t>
+  </si>
+  <si>
+    <t>dBi</t>
+  </si>
+  <si>
+    <t>dB</t>
+  </si>
+  <si>
+    <t>dBW</t>
+  </si>
+  <si>
+    <t>Downlink Information Bit Rate</t>
+  </si>
+  <si>
+    <t>bit/s</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>Downlink Information Bit Rate Logarithmic</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt;</t>
+  </si>
+  <si>
+    <t>&gt;&gt;</t>
+  </si>
+  <si>
+    <t>ebno</t>
   </si>
 </sst>
 </file>
@@ -138,8 +174,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -454,15 +492,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C45CA2C-F6AD-42DC-852C-C479AC7D0C72}">
-  <dimension ref="B1:E17"/>
+  <dimension ref="B1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B1" sqref="B1:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="36.88671875" customWidth="1"/>
+    <col min="5" max="5" width="9.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.3">
@@ -483,90 +522,208 @@
       <c r="B2" t="s">
         <v>4</v>
       </c>
+      <c r="C2" s="1">
+        <v>22000</v>
+      </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>5</v>
       </c>
+      <c r="C3">
+        <v>4.4000000000000004</v>
+      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>6</v>
       </c>
+      <c r="C4">
+        <f>10*LOG10(C3)</f>
+        <v>6.4345267648618742</v>
+      </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>7</v>
       </c>
+      <c r="C5">
+        <v>0.7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>8</v>
       </c>
+      <c r="C6">
+        <v>0.2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>9</v>
       </c>
+      <c r="C7">
+        <v>0.67</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>10</v>
       </c>
+      <c r="C8">
+        <v>31.53</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>12</v>
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9">
+        <v>37.26</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="C11">
+        <v>231.6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>-231.6</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="C12">
+        <v>-228.6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12">
+        <v>228</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="C14">
+        <v>0.56999999999999995</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="C15">
+        <v>54.35</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>164.9</v>
+      </c>
+      <c r="D16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>19</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="C17">
+        <v>32.17</v>
+      </c>
+      <c r="E17">
+        <v>32.17</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="D18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="2">
+        <f>-10*LOG10(C18)</f>
+        <v>-60</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20">
+        <f>E9+E11+E12+E17+E19</f>
+        <v>5.8299999999999983</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E22" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assignment 8/LinkBudget.xlsx
+++ b/Assignment 8/LinkBudget.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niels\Google Drive\Introduction To Spacecraft Systems\Assignment 8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3052AB84-AFF6-47D9-B186-89F08CF0D34C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1182223C-563E-4C7E-B784-932F9C23DEE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{08D095FD-7A76-4477-BCFB-B16EF9407CD1}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
   <si>
     <t>Parameter</t>
   </si>
@@ -139,13 +139,28 @@
   </si>
   <si>
     <t>ebno</t>
+  </si>
+  <si>
+    <t>Uncoded</t>
+  </si>
+  <si>
+    <t>RS(220,188)</t>
+  </si>
+  <si>
+    <t>R =1/2</t>
+  </si>
+  <si>
+    <t>Required</t>
+  </si>
+  <si>
+    <t>Margin</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,13 +168,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -171,15 +210,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -492,19 +537,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C45CA2C-F6AD-42DC-852C-C479AC7D0C72}">
-  <dimension ref="B1:E22"/>
+  <dimension ref="B1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E20"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="36.88671875" customWidth="1"/>
-    <col min="5" max="5" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" customWidth="1"/>
+    <col min="7" max="7" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -517,8 +563,17 @@
       <c r="E1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>4</v>
       </c>
@@ -529,7 +584,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>5</v>
       </c>
@@ -540,7 +595,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>6</v>
       </c>
@@ -552,7 +607,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>7</v>
       </c>
@@ -563,7 +618,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>8</v>
       </c>
@@ -574,7 +629,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>9</v>
       </c>
@@ -585,7 +640,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>10</v>
       </c>
@@ -596,7 +651,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>11</v>
       </c>
@@ -610,7 +665,7 @@
         <v>37.26</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>12</v>
       </c>
@@ -624,7 +679,7 @@
         <v>-231.6</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>13</v>
       </c>
@@ -638,7 +693,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>14</v>
       </c>
@@ -649,7 +704,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>15</v>
       </c>
@@ -657,7 +712,7 @@
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>17</v>
       </c>
@@ -665,7 +720,7 @@
         <v>54.35</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>16</v>
       </c>
@@ -676,7 +731,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>18</v>
       </c>
@@ -687,7 +742,7 @@
         <v>32.17</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>28</v>
       </c>
@@ -698,7 +753,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>31</v>
       </c>
@@ -713,7 +768,7 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>34</v>
       </c>
@@ -721,9 +776,50 @@
         <f>E9+E11+E12+E17+E19</f>
         <v>5.8299999999999983</v>
       </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F20">
+        <f>E20</f>
+        <v>5.8299999999999983</v>
+      </c>
+      <c r="G20">
+        <f t="shared" ref="G20:H20" si="0">F20</f>
+        <v>5.8299999999999983</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="0"/>
+        <v>5.8299999999999983</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>38</v>
+      </c>
       <c r="E22" s="2"/>
+      <c r="F22" s="2">
+        <v>10.8</v>
+      </c>
+      <c r="G22">
+        <v>5.62</v>
+      </c>
+      <c r="H22">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>39</v>
+      </c>
+      <c r="F23" s="3">
+        <f>F20-F22</f>
+        <v>-4.9700000000000024</v>
+      </c>
+      <c r="G23" s="4">
+        <f t="shared" ref="G23:H23" si="1">G20-G22</f>
+        <v>0.20999999999999819</v>
+      </c>
+      <c r="H23" s="4">
+        <f t="shared" si="1"/>
+        <v>4.9299999999999979</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
